--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 20242.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -76,10 +76,7 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
+    <t>FLORES</t>
   </si>
   <si>
     <t>GILES</t>
@@ -88,16 +85,10 @@
     <t>COCOTLE</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>MACUIXTLE</t>
-  </si>
-  <si>
-    <t>SOSA</t>
+    <t>TINOCO</t>
   </si>
   <si>
     <t>FIGUEROA</t>
@@ -106,25 +97,16 @@
     <t>IXMATLAHUA</t>
   </si>
   <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
     <t>RIOS</t>
   </si>
   <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
+    <t>JULIO ALBERTO</t>
   </si>
   <si>
     <t>ALEXA YAMILET</t>
   </si>
   <si>
     <t>PAOLA</t>
-  </si>
-  <si>
-    <t>JULIO ALBERTO</t>
   </si>
   <si>
     <t>NOHEMI ANGELICA</t>
@@ -677,16 +659,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -700,16 +685,19 @@
         <v>13</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -723,16 +711,19 @@
         <v>14</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -746,16 +737,19 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -814,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -840,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>92.31</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -866,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>92.86</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -901,7 +895,7 @@
         <v>70</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +905,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,85 +940,85 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920220</v>
+        <v>23330051920290</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920240</v>
+        <v>23330051920231</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920231</v>
+        <v>23330051920339</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920339</v>
+        <v>23330051920303</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1033,53 +1027,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>23330051920290</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>23330051920303</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
